--- a/Agency/HrPlan.xlsx
+++ b/Agency/HrPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LEARNING PROCESS\MY WORK\HR Agency\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radoslav\Documents\GitHub\ASP.NET-Core\Agency\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>First Name</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>User -&gt; Worker</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Flat/Ent/Floor</t>
   </si>
 </sst>
 </file>
@@ -506,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +598,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -603,7 +615,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -619,6 +631,9 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
@@ -662,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -676,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -690,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -700,11 +715,22 @@
       <c r="B14" t="s">
         <v>48</v>
       </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
@@ -748,11 +774,16 @@
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -771,6 +802,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Agency/HrPlan.xlsx
+++ b/Agency/HrPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>First Name</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Family Name</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
     <t>User -&gt; Worker</t>
   </si>
   <si>
@@ -192,6 +189,24 @@
   </si>
   <si>
     <t>Flat/Ent/Floor</t>
+  </si>
+  <si>
+    <t>Type (new/R)</t>
+  </si>
+  <si>
+    <t>Offer Status</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Dissaproved</t>
+  </si>
+  <si>
+    <t>Rejected offer</t>
   </si>
 </sst>
 </file>
@@ -207,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,9 +254,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L33"/>
+  <dimension ref="B1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +560,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -598,7 +620,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -641,162 +663,186 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Agency/HrPlan.xlsx
+++ b/Agency/HrPlan.xlsx
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,22 +665,22 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>

--- a/Agency/HrPlan.xlsx
+++ b/Agency/HrPlan.xlsx
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,11 +688,11 @@
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -706,10 +706,10 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
         <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -723,10 +723,10 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" t="s">
         <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -740,10 +740,10 @@
         <v>28</v>
       </c>
       <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" t="s">
         <v>43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
         <v>39</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">

--- a/Agency/HrPlan.xlsx
+++ b/Agency/HrPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>First Name</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">Add your details </t>
-  </si>
-  <si>
-    <t xml:space="preserve">From </t>
-  </si>
-  <si>
-    <t>To</t>
   </si>
   <si>
     <t>Company /Farm</t>
@@ -541,7 +535,7 @@
   <dimension ref="B1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +554,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -595,7 +589,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -615,12 +609,12 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -632,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -649,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -659,23 +653,20 @@
       <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -689,7 +680,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>21</v>
@@ -706,15 +697,15 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -723,15 +714,15 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -740,10 +731,10 @@
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -754,23 +745,23 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
@@ -815,12 +806,12 @@
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
@@ -835,15 +826,15 @@
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Agency/HrPlan.xlsx
+++ b/Agency/HrPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -244,14 +244,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +591,7 @@
   <dimension ref="B1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +629,7 @@
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
@@ -593,9 +649,6 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -613,8 +666,8 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>49</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -630,8 +683,8 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -647,32 +700,29 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>42</v>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>46</v>
+      <c r="B8" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>53</v>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
@@ -687,8 +737,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -704,8 +754,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>38</v>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -721,9 +771,6 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
@@ -738,8 +785,8 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>19</v>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -755,76 +802,85 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>43</v>
       </c>
